--- a/Dataset/Folds/Fold_4/Excel/13.xlsx
+++ b/Dataset/Folds/Fold_4/Excel/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7494" uniqueCount="1144">
   <si>
     <t>Doi</t>
   </si>
@@ -3565,6 +3565,384 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,                            D.% Bates%null%1,                            J. M.% Fiskio%null%1,                            E. C.% Roche%null%1,                            S.% Mora%null%1,                            O. % Demler%null%1,         H. T.%Dashti%null%1,         D.% Bates%null%1,         J. M.% Fiskio%null%1,         E. C.% Roche%null%1,         S.% Mora%null%1,         O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                            Jennifer M%Cooper%NULL%2,                            Jennifer M%Cooper%NULL%0,                            Krishna%Gokhale%NULL%1,                            Dionisio%Acosta-Mena%NULL%1,                            Samir%Dhalla%NULL%1,                            Nathan%Byne%NULL%1,                            Joht Singh%Chandan%NULL%1,                            Astha%Anand%NULL%2,                            Astha%Anand%NULL%0,                            Kelvin%Okoth%NULL%1,                            Anuradhaa%Subramanian%NULL%2,                            Anuradhaa%Subramanian%NULL%0,                            Mansoor N%Bangash%NULL%1,                            Thomas%Jackson%NULL%2,                            Thomas%Jackson%NULL%0,                            Dawit%Zemedikun%NULL%2,                            Dawit%Zemedikun%NULL%0,                            Tom%Taverner%NULL%2,                            Tom%Taverner%NULL%0,                            Wasim%Hanif%NULL%1,                            Sandip%Ghosh%NULL%1,                            Parth%Narendran%NULL%1,                            Konstantinos A%Toulis%NULL%1,                            Abd A%Tahrani%NULL%2,                            Abd A%Tahrani%NULL%0,                            Rajendra%Surenthirakumaran%NULL%2,                            Rajendra%Surenthirakumaran%NULL%0,                            Nicola J%Adderley%NULL%1,                            Shamil%Haroon%NULL%2,                            Shamil%Haroon%NULL%0,                            Kamlesh%Khunti%NULL%4,                            Kamlesh%Khunti%NULL%0,                            Christopher%Sainsbury%NULL%2,                            Christopher%Sainsbury%NULL%0,                            G Neil%Thomas%NULL%1,                            Krishnarajah%Nirantharakumar%NULL%2,                            Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                            Thomas%Servais%NULL%1,                            Leïla%Belkhir%NULL%1,                            Pierre-François%Laterre%NULL%1,                            Jean-Paul%Thissen%NULL%1,                            Bernard%Vandeleene%NULL%1,                            Dominique%Maiter%NULL%1,                            Jean C.%Yombi%NULL%1,                            Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                            Abdallah%Al-Salameh%NULL%3,                            Samy%Hadjadj%NULL%3,                            Thomas%Goronflot%NULL%1,                            Nicolas%Wiernsperger%NULL%1,                            Matthieu%Pichelin%NULL%3,                            Ingrid%Allix%NULL%3,                            Coralie%Amadou%NULL%2,                            Olivier%Bourron%NULL%2,                            Thierry%Duriez%NULL%1,                            Jean-François%Gautier%NULL%3,                            Anne%Dutour%NULL%1,                            Céline%Gonfroy%NULL%1,                            Didier%Gouet%NULL%1,                            Michael%Joubert%NULL%3,                            Ingrid%Julier%NULL%1,                            Etienne%Larger%NULL%1,                            Lucien%Marchand%NULL%3,                            Michel%Marre%NULL%1,                            Laurent%Meyer%NULL%3,                            Frédérique%Olivier%NULL%1,                            Gaëtan%Prevost%NULL%3,                            Pascale%Quiniou%NULL%1,                            Christelle%Raffaitin-Cardin%NULL%1,                            Ronan%Roussel%NULL%3,                            Pierre-Jean%Saulnier%NULL%3,                            Dominique%Seret-Begue%NULL%1,                            Charles%Thivolet%NULL%3,                            Camille%Vatier%NULL%2,                            Rachel%Desailloud%NULL%1,                            Matthieu%Wargny%NULL%3,                            Pierre%Gourdy%NULL%3,                            Bertrand%Cariou%NULL%1,                            NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                            Zhenyuan%Chen%NULL%1,                            Li%Liu%NULL%3,                            Xiaoxv%Yin%NULL%1,                            Heping%Yang%NULL%1,                            Xiangping%Tan%NULL%1,                            Jing%Wang%NULL%2,                            Hui%Li%NULL%13,                            Mengge%Tian%NULL%1,                            Zuxun%Lu%NULL%1,                            Nian%Xiong%NULL%4,                            Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                            Ye-Mao%Liu%NULL%2,                            Haomiao%Li%NULL%1,                            Xin%Zhang%NULL%1,                            Fang%Lei%NULL%2,                            Juan-Juan%Qin%NULL%2,                            Ze%Chen%NULL%1,                            Ke-Qiong%Deng%NULL%1,                            Lijin%Lin%NULL%2,                            Ming-Ming%Chen%NULL%2,                            Xiaohui%Song%NULL%1,                            Meng%Xia%NULL%2,                            Xuewei%Huang%NULL%2,                            Weifang%Liu%NULL%1,                            Jingjing%Cai%NULL%2,                            Xiao-Jing%Zhang%NULL%2,                            Feng%Zhou%NULL%1,                            Peng%Zhang%NULL%1,                            Yibin%Wang%NULL%2,                            Xinliang%Ma%NULL%1,                            Qingbo%Xu%NULL%2,                            Juan%Yang%NULL%3,                            Ping%Ye%NULL%2,                            Weiming%Mao%NULL%2,                            Xiaodong%Huang%NULL%2,                            Jiahong%Xia%NULL%2,                            Bing-Hong%Zhang%NULL%2,                            Jiao%Guo%NULL%1,                            Lihua%Zhu%NULL%2,                            Zhibing%Lu%NULL%3,                            Yufeng%Yuan%NULL%2,                            Xiang%Wei%NULL%1,                            Zhi-Gang%She%NULL%2,                            Yan-Xiao%Ji%NULL%2,                            Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                            Xi%Bai%NULL%1,                            Xia%Han%NULL%1,                            Wangyan%Jiang%NULL%1,                            Lin%Qiu%NULL%2,                            Shi%Chen%NULL%1,                            Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                            Yanhong%Wei%NULL%1,                            Min%Chen%NULL%1,                            Qianqian%Wan%NULL%1,                            Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                            Matteo%Monami%NULL%1,                            Achille%Cernigliaro%NULL%1,                            Enrica%Vigneri%NULL%1,                            Valentina%Guarnotta%NULL%1,                            Salvatore%Scondotto%NULL%1,                            Vincenza A.%Allotta%NULL%1,                            Michela%Conti%NULL%1,                            Carla%Giordano%NULL%1,                            Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                            Wen%Kong%NULL%1,                            Pengfei%Xia%NULL%1,                            Ying%Xu%NULL%1,                            Li%Li%NULL%3,                            Qin%Li%NULL%1,                            Li%Yang%NULL%3,                            Qi%Wei%NULL%3,                            Hanyu%Wang%NULL%1,                            Huiqing%Li%NULL%1,                            Juan%Zheng%NULL%1,                            Hui%Sun%NULL%1,                            Wenfang%Xia%NULL%1,                            Geng%Liu%NULL%1,                            Xueyu%Zhong%NULL%1,                            Kangli%Qiu%NULL%1,                            Yan%Li%NULL%1,                            Han%Wang%NULL%1,                            Yuxiu%Wang%NULL%1,                            Xiaoli%Song%NULL%1,                            Hua%Liu%NULL%1,                            Si%Xiong%NULL%1,                            Yumei%Liu%NULL%1,                            Zhenhai%Cui%NULL%1,                            Yu%Hu%NULL%6,                            Lulu%Chen%NULL%1,                            An%Pan%NULL%1,                            Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                            Qi%Wei%NULL%0,                            Willis X%Li%NULL%1,                            Karen C%McCowen%NULL%1,                            Wei%Xiong%NULL%2,                            Jiao%Liu%NULL%2,                            Wenlijun%Jiang%NULL%2,                            Traci%Marin%NULL%1,                            Robert L%Thomas%NULL%1,                            Ming%He%NULL%2,                            Brendan%Gongol%NULL%1,                            Mark%Hepokoski%NULL%2,                            Jason X-J%Yuan%NULL%1,                            John Y-J%Shyy%NULL%1,                            Nian%Xiong%NULL%0,                            Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                            Siyi%Xin%NULL%1,                            Yaqi%Chen%NULL%1,                            Leyu%Li%NULL%1,                            Wanjun%Chen%NULL%1,                            Wenjia%Li%NULL%1,                            Baoan%Zhou%NULL%1,                            Chenxia%Li%NULL%1,                            Yu%Gong%NULL%1,                            Fei%Li%NULL%1,                            Peng%Duan%NULL%1,                            Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                            John%Buse%NULL%2,                            John%Buse%NULL%0,                            Leonardo%Tamaritz%NULL%1,                            Ana%Palacio%NULL%2,                            Ken%Cohen%NULL%1,                            Deneen%Vojta%NULL%2,                            David%Liebovitz%NULL%1,                            Nia%Mitchell%NULL%1,                            Jacinda%Nicklas%NULL%1,                            Ildiko%Lingvay%NULL%1,                            Jeanne M.%Clark%NULL%1,                            Louis J.%Aronne%NULL%1,                            Erik%Anderson%NULL%1,                            Michael%Usher%NULL%1,                            Ryan%Demmer%NULL%1,                            Genevieve B.%Melton%NULL%1,                            Nicholas%Ingraham%NULL%1,                            Christopher J.%Tignanelli%NULL%2,                            Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                            In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                            Ana%Palacio%NULL%0,                            Elissa%Dawkins%NULL%1,                            Gordon%Chen%NULL%1,                            Daniel%McCarter%NULL%1,                            Emancia%Forbes%NULL%1,                            Brian%Chung%NULL%1,                            Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                            Qi%Wei%NULL%0,                            Karen C.%McCowen%NULL%1,                            Wei%Xiong%NULL%0,                            Jiao%Liu%NULL%0,                            Wenlijun%Jiang%NULL%0,                            Robert L.%Thomas%NULL%1,                            Mark%Hepokoski%NULL%0,                            Ming%He%NULL%0,                            John Y. J.%Shyy%NULL%1,                            Atul%Malhotra%NULL%0,                            Nian%Xiong%nianxiong@hust.edu.cn%0,                            Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                            T. A. N.%Reed%NULL%2,                            T. A. N.%Reed%NULL%0,                            M.%Ardissino%NULL%1,                            P.%Bassett%NULL%1,                            A. M.%Whittington%NULL%1,                            D. L.%Cohen%NULL%1,                            N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                            Walter%Distaso%NULL%2,                            Walter%Distaso%NULL%0,                            Anjali%Amin%NULL%1,                            Wei%Yang%NULL%1,                            Oluwagbemiga%Idowu%NULL%1,                            Julia S%Kenkre%NULL%1,                            Ronak J%Shah%NULL%1,                            Evelina%Woin%NULL%1,                            Christine%Shi%NULL%1,                            Nael%Alavi%NULL%2,                            Nael%Alavi%NULL%0,                            Hala%Bedri%NULL%1,                            Niamh%Brady%NULL%1,                            Sophie%Blackburn%NULL%1,                            Martina%Leczycka%NULL%1,                            Sanya%Patel%NULL%1,                            Elizaveta%Sokol%NULL%1,                            Edward%Toke-Bjolgerud%NULL%1,                            Ambreen%Qayum%NULL%1,                            Mariana%Abdel-Malek%NULL%1,                            David C D%Hope%NULL%1,                            Nick S%Oliver%NULL%1,                            Vasiliki%Bravis%NULL%1,                            Shivani%Misra%NULL%1,                            Tricia M%Tan%NULL%1,                            Neil E%Hill%NULL%2,                            Neil E%Hill%NULL%0,                            Victoria%Salem%NULL%2,                            Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                            Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                            Tiffany%Grimes%NULL%1,                            Peng%Li%NULL%1,                            Matthew%Might%NULL%1,                            Fernando%Ovalle%NULL%1,                            Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                            Nicholas E%Ingraham%NULL%1,                            Thomas A%Murray%NULL%1,                            Schelomo%Marmor%NULL%1,                            Shane%Hovertsen%NULL%1,                            Jessica%Gronski%NULL%1,                            Chace%McNeil%NULL%1,                            Ruoying%Feng%NULL%1,                            Gabriel%Guzman%NULL%1,                            Nermine%Abdelwahab%NULL%1,                            Samantha%King%NULL%1,                            Leonardo%Tamariz%NULL%0,                            Thomas%Meehan%NULL%1,                            Kathryn M%Pendleton%NULL%1,                            Bradley%Benson%NULL%1,                            Deneen%Vojta%NULL%0,                            Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                            Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                            Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                            Matthieu%Wargny%NULL%0,                            Matthieu%Wargny%NULL%0,                            Matthieu%Pichelin%NULL%0,                            Matthieu%Pichelin%NULL%0,                            Abdallah%Al-Salameh%NULL%0,                            Abdallah%Al-Salameh%NULL%0,                            Ingrid%Allix%NULL%0,                            Ingrid%Allix%NULL%0,                            Coralie%Amadou%NULL%0,                            Gwénaëlle%Arnault%NULL%2,                            Gwénaëlle%Arnault%NULL%0,                            Florence%Baudoux%NULL%1,                            Bernard%Bauduceau%NULL%1,                            Sophie%Borot%NULL%1,                            Muriel%Bourgeon-Ghittori%NULL%2,                            Muriel%Bourgeon-Ghittori%NULL%0,                            Olivier%Bourron%NULL%0,                            David%Boutoille%NULL%4,                            David%Boutoille%NULL%0,                            France%Cazenave-Roblot%NULL%3,                            France%Cazenave-Roblot%NULL%0,                            Claude%Chaumeil%NULL%2,                            Claude%Chaumeil%NULL%0,                            Emmanuel%Cosson%NULL%1,                            Sandrine%Coudol%NULL%2,                            Sandrine%Coudol%NULL%0,                            Patrice%Darmon%NULL%1,                            Emmanuel%Disse%NULL%2,                            Emmanuel%Disse%NULL%0,                            Amélie%Ducet-Boiffard%NULL%2,                            Amélie%Ducet-Boiffard%NULL%0,                            Bénédicte%Gaborit%NULL%1,                            Michael%Joubert%NULL%0,                            Michael%Joubert%NULL%0,                            Véronique%Kerlan%NULL%2,                            Véronique%Kerlan%NULL%0,                            Bruno%Laviolle%NULL%1,                            Lucien%Marchand%NULL%0,                            Lucien%Marchand%NULL%0,                            Laurent%Meyer%NULL%0,                            Laurent%Meyer%NULL%0,                            Louis%Potier%NULL%2,                            Louis%Potier%NULL%0,                            Gaëtan%Prevost%NULL%0,                            Gaëtan%Prevost%NULL%0,                            Jean-Pierre%Riveline%NULL%1,                            René%Robert%NULL%2,                            René%Robert%NULL%0,                            Pierre-Jean%Saulnier%NULL%0,                            Pierre-Jean%Saulnier%NULL%0,                            Ariane%Sultan%NULL%2,                            Ariane%Sultan%NULL%0,                            Jean-François%Thébaut%NULL%2,                            Jean-François%Thébaut%NULL%0,                            Charles%Thivolet%NULL%0,                            Charles%Thivolet%NULL%0,                            Blandine%Tramunt%NULL%2,                            Blandine%Tramunt%NULL%0,                            Camille%Vatier%NULL%0,                            Ronan%Roussel%NULL%0,                            Ronan%Roussel%NULL%0,                            Jean-François%Gautier%NULL%0,                            Jean-François%Gautier%NULL%0,                            Pierre%Gourdy%NULL%0,                            Pierre%Gourdy%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                            Peter%Knighton%NULL%1,                            Francesco%Zaccardi%NULL%2,                            Chirag%Bakhai%NULL%1,                            Emma%Barron%NULL%1,                            Naomi%Holman%NULL%1,                            Partha%Kar%NULL%1,                            Claire%Meace%NULL%1,                            Naveed%Sattar%NULL%1,                            Stephen%Sharp%NULL%1,                            Nicholas J%Wareham%NULL%1,                            Andy%Weaver%NULL%1,                            Emilia%Woch%NULL%1,                            Bob%Young%NULL%1,                            Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                            José David%Torres-Peña%NULL%1,                            María D.%López-Carmona%NULL%1,                            M. Mar.%Ayala-Gutiérrez%NULL%1,                            Francisco%Fuentes-Jiménez%NULL%1,                            Lucía Jorge%Huerta%NULL%1,                            Jaime Alonso%Muñoz%NULL%1,                            Manuel%Rubio-Rivas%NULL%1,                            Manel%Madrazo%NULL%1,                            Marcos Guzmán%Garcia%NULL%1,                            Beatriz Vicente%Montes%NULL%1,                            Joaquim Fernández%Sola%NULL%1,                            Javier%Ena%NULL%1,                            Ruth Gonzalez%Ferrer%NULL%1,                            Carmen Mella%Pérez%NULL%1,                            Carlos Jorge%Ripper%NULL%1,                            Jose Javier Napal%Lecumberri%NULL%1,                            Iris El Attar%Acedo%NULL%1,                            Susana Plaza%Canteli%NULL%1,                            Sara Fuente%Cosío%NULL%1,                            Francisco Amorós%Martínez%NULL%1,                            Begoña Cortés%Rodríguez%NULL%1,                            Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                            José Manuel%Ramos-Rincón%NULL%1,                            Ricardo%Gómez-Huelgas%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                            Sang Won%Kim%NULL%1,                            Jong Won%Park%NULL%1,                            Kyu Hyang%Cho%NULL%1,                            Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                            Philip%Tsoukas%NULL%1,                            Christopher W.%Halladay%NULL%1,                            Emily%O'Neill%NULL%1,                            Stefan%Gravenstein%NULL%1,                            James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                            Tao%Liu%NULL%2,                            Weijun%Zhong%NULL%1,                            Rong%Liu%NULL%1,                            Honghao%Zhou%NULL%1,                            Weihua%Huang%endeavor34852@aliyun.com%1,                            Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                            Jae-Han%Jeon%NULL%2,                            Jae-Han%Jeon%NULL%0,                            Sung-Woo%Kim%NULL%2,                            Sung-Woo%Kim%NULL%0,                            Jun Sung%Moon%NULL%1,                            Nan Hee%Cho%NULL%1,                            Eugene%Han%NULL%1,                            Ji Hong%You%NULL%1,                            Ji Yeon%Lee%NULL%4,                            Miri%Hyun%NULL%1,                            Jae Seok%Park%NULL%4,                            Yong Shik%Kwon%NULL%2,                            Yeon-Kyung%Choi%NULL%1,                            Ki Tae%Kwon%NULL%1,                            Shin Yup%Lee%NULL%1,                            Eon Ju%Jeon%NULL%1,                            Jin-Woo%Kim%NULL%1,                            Hyo-Lim%Hong%NULL%1,                            Hyun Hee%Kwon%NULL%1,                            Chi Young%Jung%NULL%1,                            Yin Young%Lee%NULL%1,                            Eunyeoung%Ha%NULL%1,                            Seung Min%Chung%NULL%1,                            Jian%Hur%NULL%2,                            June Hong%Ahn%NULL%3,                            Na-young%Kim%NULL%1,                            Shin-Woo%Kim%NULL%3,                            Hyun Ha%Chang%NULL%1,                            Yong Hoon%Lee%NULL%1,                            Jaehee%Lee%NULL%1,                            Keun-Gyu%Park%NULL%1,                            Hyun Ah%Kim%NULL%1,                            Ji-Hyun%Lee%NULL%2,                            Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                            Lin%Qiu%NULL%0,                            Yi%Liu%NULL%2,                            Xiu-lan%Liu%NULL%1,                            Jian-ling%Zheng%NULL%1,                            Hui-ying%Xue%NULL%1,                            Wen-hua%Liu%NULL%1,                            Dong%Liu%NULL%3,                            Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                             Jennifer M%Cooper%NULL%2,                             Jennifer M%Cooper%NULL%0,                             Krishna%Gokhale%NULL%1,                             Dionisio%Acosta-Mena%NULL%1,                             Samir%Dhalla%NULL%1,                             Nathan%Byne%NULL%1,                             Joht Singh%Chandan%NULL%1,                             Astha%Anand%NULL%2,                             Astha%Anand%NULL%0,                             Kelvin%Okoth%NULL%1,                             Anuradhaa%Subramanian%NULL%2,                             Anuradhaa%Subramanian%NULL%0,                             Mansoor N%Bangash%NULL%1,                             Thomas%Jackson%NULL%2,                             Thomas%Jackson%NULL%0,                             Dawit%Zemedikun%NULL%2,                             Dawit%Zemedikun%NULL%0,                             Tom%Taverner%NULL%2,                             Tom%Taverner%NULL%0,                             Wasim%Hanif%NULL%1,                             Sandip%Ghosh%NULL%1,                             Parth%Narendran%NULL%1,                             Konstantinos A%Toulis%NULL%1,                             Abd A%Tahrani%NULL%2,                             Abd A%Tahrani%NULL%0,                             Rajendra%Surenthirakumaran%NULL%2,                             Rajendra%Surenthirakumaran%NULL%0,                             Nicola J%Adderley%NULL%1,                             Shamil%Haroon%NULL%2,                             Shamil%Haroon%NULL%0,                             Kamlesh%Khunti%NULL%4,                             Kamlesh%Khunti%NULL%0,                             Christopher%Sainsbury%NULL%2,                             Christopher%Sainsbury%NULL%0,                             G Neil%Thomas%NULL%1,                             Krishnarajah%Nirantharakumar%NULL%2,                             Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                             Thomas%Servais%NULL%1,                             Leïla%Belkhir%NULL%1,                             Pierre-François%Laterre%NULL%1,                             Jean-Paul%Thissen%NULL%1,                             Bernard%Vandeleene%NULL%1,                             Dominique%Maiter%NULL%1,                             Jean C.%Yombi%NULL%1,                             Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                             Abdallah%Al-Salameh%NULL%3,                             Samy%Hadjadj%NULL%3,                             Thomas%Goronflot%NULL%1,                             Nicolas%Wiernsperger%NULL%1,                             Matthieu%Pichelin%NULL%3,                             Ingrid%Allix%NULL%3,                             Coralie%Amadou%NULL%2,                             Olivier%Bourron%NULL%2,                             Thierry%Duriez%NULL%1,                             Jean-François%Gautier%NULL%3,                             Anne%Dutour%NULL%1,                             Céline%Gonfroy%NULL%1,                             Didier%Gouet%NULL%1,                             Michael%Joubert%NULL%3,                             Ingrid%Julier%NULL%1,                             Etienne%Larger%NULL%1,                             Lucien%Marchand%NULL%3,                             Michel%Marre%NULL%1,                             Laurent%Meyer%NULL%3,                             Frédérique%Olivier%NULL%1,                             Gaëtan%Prevost%NULL%3,                             Pascale%Quiniou%NULL%1,                             Christelle%Raffaitin-Cardin%NULL%1,                             Ronan%Roussel%NULL%3,                             Pierre-Jean%Saulnier%NULL%3,                             Dominique%Seret-Begue%NULL%1,                             Charles%Thivolet%NULL%3,                             Camille%Vatier%NULL%2,                             Rachel%Desailloud%NULL%1,                             Matthieu%Wargny%NULL%3,                             Pierre%Gourdy%NULL%3,                             Bertrand%Cariou%NULL%1,                             NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                             Zhenyuan%Chen%NULL%1,                             Li%Liu%NULL%3,                             Xiaoxv%Yin%NULL%1,                             Heping%Yang%NULL%1,                             Xiangping%Tan%NULL%1,                             Jing%Wang%NULL%2,                             Hui%Li%NULL%13,                             Mengge%Tian%NULL%1,                             Zuxun%Lu%NULL%1,                             Nian%Xiong%NULL%4,                             Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                             Ye-Mao%Liu%NULL%2,                             Haomiao%Li%NULL%1,                             Xin%Zhang%NULL%1,                             Fang%Lei%NULL%2,                             Juan-Juan%Qin%NULL%2,                             Ze%Chen%NULL%1,                             Ke-Qiong%Deng%NULL%1,                             Lijin%Lin%NULL%2,                             Ming-Ming%Chen%NULL%2,                             Xiaohui%Song%NULL%1,                             Meng%Xia%NULL%2,                             Xuewei%Huang%NULL%2,                             Weifang%Liu%NULL%1,                             Jingjing%Cai%NULL%2,                             Xiao-Jing%Zhang%NULL%2,                             Feng%Zhou%NULL%1,                             Peng%Zhang%NULL%1,                             Yibin%Wang%NULL%2,                             Xinliang%Ma%NULL%1,                             Qingbo%Xu%NULL%2,                             Juan%Yang%NULL%3,                             Ping%Ye%NULL%2,                             Weiming%Mao%NULL%2,                             Xiaodong%Huang%NULL%2,                             Jiahong%Xia%NULL%2,                             Bing-Hong%Zhang%NULL%2,                             Jiao%Guo%NULL%1,                             Lihua%Zhu%NULL%2,                             Zhibing%Lu%NULL%3,                             Yufeng%Yuan%NULL%2,                             Xiang%Wei%NULL%1,                             Zhi-Gang%She%NULL%2,                             Yan-Xiao%Ji%NULL%2,                             Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                             Xi%Bai%NULL%1,                             Xia%Han%NULL%1,                             Wangyan%Jiang%NULL%1,                             Lin%Qiu%NULL%2,                             Shi%Chen%NULL%1,                             Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                             Yanhong%Wei%NULL%1,                             Min%Chen%NULL%1,                             Qianqian%Wan%NULL%1,                             Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                             Matteo%Monami%NULL%1,                             Achille%Cernigliaro%NULL%1,                             Enrica%Vigneri%NULL%1,                             Valentina%Guarnotta%NULL%1,                             Salvatore%Scondotto%NULL%1,                             Vincenza A.%Allotta%NULL%1,                             Michela%Conti%NULL%1,                             Carla%Giordano%NULL%1,                             Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                             Wen%Kong%NULL%1,                             Pengfei%Xia%NULL%1,                             Ying%Xu%NULL%1,                             Li%Li%NULL%3,                             Qin%Li%NULL%1,                             Li%Yang%NULL%3,                             Qi%Wei%NULL%3,                             Hanyu%Wang%NULL%1,                             Huiqing%Li%NULL%1,                             Juan%Zheng%NULL%1,                             Hui%Sun%NULL%1,                             Wenfang%Xia%NULL%1,                             Geng%Liu%NULL%1,                             Xueyu%Zhong%NULL%1,                             Kangli%Qiu%NULL%1,                             Yan%Li%NULL%1,                             Han%Wang%NULL%1,                             Yuxiu%Wang%NULL%1,                             Xiaoli%Song%NULL%1,                             Hua%Liu%NULL%1,                             Si%Xiong%NULL%1,                             Yumei%Liu%NULL%1,                             Zhenhai%Cui%NULL%1,                             Yu%Hu%NULL%6,                             Lulu%Chen%NULL%1,                             An%Pan%NULL%1,                             Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                             Qi%Wei%NULL%0,                             Willis X%Li%NULL%1,                             Karen C%McCowen%NULL%1,                             Wei%Xiong%NULL%2,                             Jiao%Liu%NULL%2,                             Wenlijun%Jiang%NULL%2,                             Traci%Marin%NULL%1,                             Robert L%Thomas%NULL%1,                             Ming%He%NULL%2,                             Brendan%Gongol%NULL%1,                             Mark%Hepokoski%NULL%2,                             Jason X-J%Yuan%NULL%1,                             John Y-J%Shyy%NULL%1,                             Nian%Xiong%NULL%0,                             Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                             Siyi%Xin%NULL%1,                             Yaqi%Chen%NULL%1,                             Leyu%Li%NULL%1,                             Wanjun%Chen%NULL%1,                             Wenjia%Li%NULL%1,                             Baoan%Zhou%NULL%1,                             Chenxia%Li%NULL%1,                             Yu%Gong%NULL%1,                             Fei%Li%NULL%1,                             Peng%Duan%NULL%1,                             Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                             John%Buse%NULL%2,                             John%Buse%NULL%0,                             Leonardo%Tamaritz%NULL%1,                             Ana%Palacio%NULL%2,                             Ken%Cohen%NULL%1,                             Deneen%Vojta%NULL%2,                             David%Liebovitz%NULL%1,                             Nia%Mitchell%NULL%1,                             Jacinda%Nicklas%NULL%1,                             Ildiko%Lingvay%NULL%1,                             Jeanne M.%Clark%NULL%1,                             Louis J.%Aronne%NULL%1,                             Erik%Anderson%NULL%1,                             Michael%Usher%NULL%1,                             Ryan%Demmer%NULL%1,                             Genevieve B.%Melton%NULL%1,                             Nicholas%Ingraham%NULL%1,                             Christopher J.%Tignanelli%NULL%2,                             Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                             In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                             Ana%Palacio%NULL%0,                             Elissa%Dawkins%NULL%1,                             Gordon%Chen%NULL%1,                             Daniel%McCarter%NULL%1,                             Emancia%Forbes%NULL%1,                             Brian%Chung%NULL%1,                             Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                             Qi%Wei%NULL%0,                             Karen C.%McCowen%NULL%1,                             Wei%Xiong%NULL%0,                             Jiao%Liu%NULL%0,                             Wenlijun%Jiang%NULL%0,                             Robert L.%Thomas%NULL%1,                             Mark%Hepokoski%NULL%0,                             Ming%He%NULL%0,                             John Y. J.%Shyy%NULL%1,                             Atul%Malhotra%NULL%0,                             Nian%Xiong%nianxiong@hust.edu.cn%0,                             Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                             T. A. N.%Reed%NULL%2,                             T. A. N.%Reed%NULL%0,                             M.%Ardissino%NULL%1,                             P.%Bassett%NULL%1,                             A. M.%Whittington%NULL%1,                             D. L.%Cohen%NULL%1,                             N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                             Walter%Distaso%NULL%2,                             Walter%Distaso%NULL%0,                             Anjali%Amin%NULL%1,                             Wei%Yang%NULL%1,                             Oluwagbemiga%Idowu%NULL%1,                             Julia S%Kenkre%NULL%1,                             Ronak J%Shah%NULL%1,                             Evelina%Woin%NULL%1,                             Christine%Shi%NULL%1,                             Nael%Alavi%NULL%2,                             Nael%Alavi%NULL%0,                             Hala%Bedri%NULL%1,                             Niamh%Brady%NULL%1,                             Sophie%Blackburn%NULL%1,                             Martina%Leczycka%NULL%1,                             Sanya%Patel%NULL%1,                             Elizaveta%Sokol%NULL%1,                             Edward%Toke-Bjolgerud%NULL%1,                             Ambreen%Qayum%NULL%1,                             Mariana%Abdel-Malek%NULL%1,                             David C D%Hope%NULL%1,                             Nick S%Oliver%NULL%1,                             Vasiliki%Bravis%NULL%1,                             Shivani%Misra%NULL%1,                             Tricia M%Tan%NULL%1,                             Neil E%Hill%NULL%2,                             Neil E%Hill%NULL%0,                             Victoria%Salem%NULL%2,                             Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                             Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                             Tiffany%Grimes%NULL%1,                             Peng%Li%NULL%1,                             Matthew%Might%NULL%1,                             Fernando%Ovalle%NULL%1,                             Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                             Nicholas E%Ingraham%NULL%1,                             Thomas A%Murray%NULL%1,                             Schelomo%Marmor%NULL%1,                             Shane%Hovertsen%NULL%1,                             Jessica%Gronski%NULL%1,                             Chace%McNeil%NULL%1,                             Ruoying%Feng%NULL%1,                             Gabriel%Guzman%NULL%1,                             Nermine%Abdelwahab%NULL%1,                             Samantha%King%NULL%1,                             Leonardo%Tamariz%NULL%0,                             Thomas%Meehan%NULL%1,                             Kathryn M%Pendleton%NULL%1,                             Bradley%Benson%NULL%1,                             Deneen%Vojta%NULL%0,                             Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                             Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                             Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                             Matthieu%Wargny%NULL%0,                             Matthieu%Wargny%NULL%0,                             Matthieu%Pichelin%NULL%0,                             Matthieu%Pichelin%NULL%0,                             Abdallah%Al-Salameh%NULL%0,                             Abdallah%Al-Salameh%NULL%0,                             Ingrid%Allix%NULL%0,                             Ingrid%Allix%NULL%0,                             Coralie%Amadou%NULL%0,                             Gwénaëlle%Arnault%NULL%2,                             Gwénaëlle%Arnault%NULL%0,                             Florence%Baudoux%NULL%1,                             Bernard%Bauduceau%NULL%1,                             Sophie%Borot%NULL%1,                             Muriel%Bourgeon-Ghittori%NULL%2,                             Muriel%Bourgeon-Ghittori%NULL%0,                             Olivier%Bourron%NULL%0,                             David%Boutoille%NULL%4,                             David%Boutoille%NULL%0,                             France%Cazenave-Roblot%NULL%3,                             France%Cazenave-Roblot%NULL%0,                             Claude%Chaumeil%NULL%2,                             Claude%Chaumeil%NULL%0,                             Emmanuel%Cosson%NULL%1,                             Sandrine%Coudol%NULL%2,                             Sandrine%Coudol%NULL%0,                             Patrice%Darmon%NULL%1,                             Emmanuel%Disse%NULL%2,                             Emmanuel%Disse%NULL%0,                             Amélie%Ducet-Boiffard%NULL%2,                             Amélie%Ducet-Boiffard%NULL%0,                             Bénédicte%Gaborit%NULL%1,                             Michael%Joubert%NULL%0,                             Michael%Joubert%NULL%0,                             Véronique%Kerlan%NULL%2,                             Véronique%Kerlan%NULL%0,                             Bruno%Laviolle%NULL%1,                             Lucien%Marchand%NULL%0,                             Lucien%Marchand%NULL%0,                             Laurent%Meyer%NULL%0,                             Laurent%Meyer%NULL%0,                             Louis%Potier%NULL%2,                             Louis%Potier%NULL%0,                             Gaëtan%Prevost%NULL%0,                             Gaëtan%Prevost%NULL%0,                             Jean-Pierre%Riveline%NULL%1,                             René%Robert%NULL%2,                             René%Robert%NULL%0,                             Pierre-Jean%Saulnier%NULL%0,                             Pierre-Jean%Saulnier%NULL%0,                             Ariane%Sultan%NULL%2,                             Ariane%Sultan%NULL%0,                             Jean-François%Thébaut%NULL%2,                             Jean-François%Thébaut%NULL%0,                             Charles%Thivolet%NULL%0,                             Charles%Thivolet%NULL%0,                             Blandine%Tramunt%NULL%2,                             Blandine%Tramunt%NULL%0,                             Camille%Vatier%NULL%0,                             Ronan%Roussel%NULL%0,                             Ronan%Roussel%NULL%0,                             Jean-François%Gautier%NULL%0,                             Jean-François%Gautier%NULL%0,                             Pierre%Gourdy%NULL%0,                             Pierre%Gourdy%NULL%0,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                             Peter%Knighton%NULL%1,                             Francesco%Zaccardi%NULL%2,                             Chirag%Bakhai%NULL%1,                             Emma%Barron%NULL%1,                             Naomi%Holman%NULL%1,                             Partha%Kar%NULL%1,                             Claire%Meace%NULL%1,                             Naveed%Sattar%NULL%1,                             Stephen%Sharp%NULL%1,                             Nicholas J%Wareham%NULL%1,                             Andy%Weaver%NULL%1,                             Emilia%Woch%NULL%1,                             Bob%Young%NULL%1,                             Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                             José David%Torres-Peña%NULL%1,                             María D.%López-Carmona%NULL%1,                             M. Mar.%Ayala-Gutiérrez%NULL%1,                             Francisco%Fuentes-Jiménez%NULL%1,                             Lucía Jorge%Huerta%NULL%1,                             Jaime Alonso%Muñoz%NULL%1,                             Manuel%Rubio-Rivas%NULL%1,                             Manel%Madrazo%NULL%1,                             Marcos Guzmán%Garcia%NULL%1,                             Beatriz Vicente%Montes%NULL%1,                             Joaquim Fernández%Sola%NULL%1,                             Javier%Ena%NULL%1,                             Ruth Gonzalez%Ferrer%NULL%1,                             Carmen Mella%Pérez%NULL%1,                             Carlos Jorge%Ripper%NULL%1,                             Jose Javier Napal%Lecumberri%NULL%1,                             Iris El Attar%Acedo%NULL%1,                             Susana Plaza%Canteli%NULL%1,                             Sara Fuente%Cosío%NULL%1,                             Francisco Amorós%Martínez%NULL%1,                             Begoña Cortés%Rodríguez%NULL%1,                             Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                             José Manuel%Ramos-Rincón%NULL%1,                             Ricardo%Gómez-Huelgas%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                             Sang Won%Kim%NULL%1,                             Jong Won%Park%NULL%1,                             Kyu Hyang%Cho%NULL%1,                             Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                             Philip%Tsoukas%NULL%1,                             Christopher W.%Halladay%NULL%1,                             Emily%O'Neill%NULL%1,                             Stefan%Gravenstein%NULL%1,                             James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                             Tao%Liu%NULL%2,                             Weijun%Zhong%NULL%1,                             Rong%Liu%NULL%1,                             Honghao%Zhou%NULL%1,                             Weihua%Huang%endeavor34852@aliyun.com%1,                             Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                             Jae-Han%Jeon%NULL%2,                             Jae-Han%Jeon%NULL%0,                             Sung-Woo%Kim%NULL%2,                             Sung-Woo%Kim%NULL%0,                             Jun Sung%Moon%NULL%1,                             Nan Hee%Cho%NULL%1,                             Eugene%Han%NULL%1,                             Ji Hong%You%NULL%1,                             Ji Yeon%Lee%NULL%4,                             Miri%Hyun%NULL%1,                             Jae Seok%Park%NULL%4,                             Yong Shik%Kwon%NULL%2,                             Yeon-Kyung%Choi%NULL%1,                             Ki Tae%Kwon%NULL%1,                             Shin Yup%Lee%NULL%1,                             Eon Ju%Jeon%NULL%1,                             Jin-Woo%Kim%NULL%1,                             Hyo-Lim%Hong%NULL%1,                             Hyun Hee%Kwon%NULL%1,                             Chi Young%Jung%NULL%1,                             Yin Young%Lee%NULL%1,                             Eunyeoung%Ha%NULL%1,                             Seung Min%Chung%NULL%1,                             Jian%Hur%NULL%2,                             June Hong%Ahn%NULL%3,                             Na-young%Kim%NULL%1,                             Shin-Woo%Kim%NULL%3,                             Hyun Ha%Chang%NULL%1,                             Yong Hoon%Lee%NULL%1,                             Jaehee%Lee%NULL%1,                             Keun-Gyu%Park%NULL%1,                             Hyun Ah%Kim%NULL%1,                             Ji-Hyun%Lee%NULL%2,                             Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                             Lin%Qiu%NULL%0,                             Yi%Liu%NULL%2,                             Xiu-lan%Liu%NULL%1,                             Jian-ling%Zheng%NULL%1,                             Hui-ying%Xue%NULL%1,                             Wen-hua%Liu%NULL%1,                             Dong%Liu%NULL%3,                             Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%0, Jennifer M%Cooper%NULL%2, Jennifer M%Cooper%NULL%0, Krishna%Gokhale%NULL%1, Dionisio%Acosta-Mena%NULL%1, Samir%Dhalla%NULL%1, Nathan%Byne%NULL%1, Joht Singh%Chandan%NULL%1, Astha%Anand%NULL%2, Astha%Anand%NULL%0, Kelvin%Okoth%NULL%1, Anuradhaa%Subramanian%NULL%2, Anuradhaa%Subramanian%NULL%0, Mansoor N%Bangash%NULL%1, Thomas%Jackson%NULL%2, Thomas%Jackson%NULL%0, Dawit%Zemedikun%NULL%2, Dawit%Zemedikun%NULL%0, Tom%Taverner%NULL%2, Tom%Taverner%NULL%0, Wasim%Hanif%NULL%1, Sandip%Ghosh%NULL%1, Parth%Narendran%NULL%1, Konstantinos A%Toulis%NULL%1, Abd A%Tahrani%NULL%2, Abd A%Tahrani%NULL%0, Rajendra%Surenthirakumaran%NULL%2, Rajendra%Surenthirakumaran%NULL%0, Nicola J%Adderley%NULL%1, Shamil%Haroon%NULL%2, Shamil%Haroon%NULL%0, Kamlesh%Khunti%NULL%0, Kamlesh%Khunti%NULL%0, Christopher%Sainsbury%NULL%2, Christopher%Sainsbury%NULL%0, G Neil%Thomas%NULL%1, Krishnarajah%Nirantharakumar%NULL%4, Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%0, Thomas%Servais%NULL%1, Leïla%Belkhir%NULL%1, Pierre-François%Laterre%NULL%1, Jean-Paul%Thissen%NULL%1, Bernard%Vandeleene%NULL%1, Dominique%Maiter%NULL%1, Jean C.%Yombi%NULL%1, Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>Diabetes India. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%0, Abdallah%Al-Salameh%NULL%3, Samy%Hadjadj%NULL%4, Thomas%Goronflot%NULL%1, Nicolas%Wiernsperger%NULL%1, Matthieu%Pichelin%NULL%5, Ingrid%Allix%NULL%3, Coralie%Amadou%NULL%4, Olivier%Bourron%NULL%3, Thierry%Duriez%NULL%1, Jean-François%Gautier%NULL%4, Anne%Dutour%NULL%1, Céline%Gonfroy%NULL%1, Didier%Gouet%NULL%1, Michael%Joubert%NULL%3, Ingrid%Julier%NULL%1, Etienne%Larger%NULL%2, Lucien%Marchand%NULL%3, Michel%Marre%NULL%1, Laurent%Meyer%NULL%3, Frédérique%Olivier%NULL%1, Gaëtan%Prevost%NULL%3, Pascale%Quiniou%NULL%1, Christelle%Raffaitin-Cardin%NULL%1, Ronan%Roussel%NULL%5, Pierre-Jean%Saulnier%NULL%3, Dominique%Seret-Begue%NULL%1, Charles%Thivolet%NULL%3, Camille%Vatier%NULL%3, Rachel%Desailloud%NULL%1, Matthieu%Wargny%NULL%0, Pierre%Gourdy%NULL%5, Bertrand%Cariou%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%0, Zhenyuan%Chen%NULL%1, Li%Liu%NULL%0, Xiaoxv%Yin%NULL%1, Heping%Yang%NULL%1, Xiangping%Tan%NULL%1, Jing%Wang%NULL%6, Hui%Li%NULL%0, Mengge%Tian%NULL%1, Zuxun%Lu%NULL%1, Nian%Xiong%NULL%4, Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>The safety and efficacy of anti-diabetic drugs are critical for maximizing the beneficial impacts of well-controlled blood glucose on the prognosis of individuals with COVID-19 and pre-existing type 2 diabetes (T2D).
+ Metformin is the most commonly prescribed first-line medication for T2D, but its impact on the outcomes of individuals with COVID-19 and T2D remains to be clarified.
+ Our current retrospective study in a cohort of 1,213 hospitalized individuals with COVID-19 and pre-existing T2D indicated that metformin use was significantly associated with a higher incidence of acidosis, particularly in cases with severe COVID-19, but not with 28-day COVID-19-related mortality.
+ Furthermore, metformin use was significantly associated with reduced heart failure and inflammation.
+ Our findings provide clinical evidence in support of continuing metformin treatment in individuals with COVID-19 and pre-existing T2D, but acidosis and kidney function should be carefully monitored in individuals with severe COVID-19.</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%0, Ye-Mao%Liu%NULL%0, Haomiao%Li%NULL%1, Xin%Zhang%NULL%3, Fang%Lei%NULL%0, Juan-Juan%Qin%NULL%0, Ze%Chen%NULL%1, Ke-Qiong%Deng%NULL%2, Lijin%Lin%NULL%0, Ming-Ming%Chen%NULL%0, Xiaohui%Song%NULL%2, Meng%Xia%NULL%0, Xuewei%Huang%NULL%0, Weifang%Liu%NULL%1, Jingjing%Cai%NULL%0, Xiao-Jing%Zhang%NULL%0, Feng%Zhou%NULL%2, Peng%Zhang%NULL%0, Yibin%Wang%NULL%0, Xinliang%Ma%NULL%2, Qingbo%Xu%NULL%0, Juan%Yang%NULL%4, Ping%Ye%NULL%0, Weiming%Mao%NULL%0, Xiaodong%Huang%NULL%0, Jiahong%Xia%NULL%0, Bing-Hong%Zhang%NULL%0, Jiao%Guo%NULL%2, Lihua%Zhu%NULL%0, Zhibing%Lu%NULL%7, Yufeng%Yuan%NULL%0, Xiang%Wei%NULL%2, Zhi-Gang%She%NULL%0, Yan-Xiao%Ji%NULL%0, Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%0, Xi%Bai%NULL%1, Xia%Han%NULL%1, Wangyan%Jiang%NULL%1, Lin%Qiu%NULL%2, Shi%Chen%NULL%1, Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%0, Yanhong%Wei%NULL%1, Min%Chen%NULL%0, Qianqian%Wan%NULL%1, Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%0, Matteo%Monami%NULL%1, Achille%Cernigliaro%NULL%1, Enrica%Vigneri%NULL%1, Valentina%Guarnotta%NULL%1, Salvatore%Scondotto%NULL%1, Vincenza A.%Allotta%NULL%1, Michela%Conti%NULL%1, Carla%Giordano%NULL%1, Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Italian Diabetes Society, the Italian Society for the Study of Atherosclerosis, the Italian Society of Human Nutrition and the Department of Clinical Medicine and Surgery, Federico II University. Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%0, Wen%Kong%NULL%1, Pengfei%Xia%NULL%1, Ying%Xu%NULL%1, Li%Li%NULL%0, Qin%Li%NULL%2, Li%Yang%NULL%3, Qi%Wei%NULL%3, Hanyu%Wang%NULL%1, Huiqing%Li%NULL%1, Juan%Zheng%NULL%1, Hui%Sun%NULL%1, Wenfang%Xia%NULL%1, Geng%Liu%NULL%1, Xueyu%Zhong%NULL%1, Kangli%Qiu%NULL%1, Yan%Li%NULL%3, Han%Wang%NULL%1, Yuxiu%Wang%NULL%1, Xiaoli%Song%NULL%1, Hua%Liu%NULL%1, Si%Xiong%NULL%1, Yumei%Liu%NULL%1, Zhenhai%Cui%NULL%1, Yu%Hu%NULL%0, Lulu%Chen%NULL%1, An%Pan%NULL%1, Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: Although type 2 diabetes mellitus (T2DM) has been reported as a risk factor for coronavirus disease 2019 (COVID-19), the effect of pharmacologic agents used to treat T2DM, such as metformin, on COVID-19 outcomes remains unclear.
+ Metformin increases the expression of angiotensin converting enzyme 2, a known receptor for severe acute respiratory syndrome coronavirus 2. Data from people with T2DM hospitalized for COVID-19 were used to test the hypothesis that metformin use is associated with improved survival in this population.
+</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0, Qi%Wei%NULL%0, Willis X%Li%NULL%1, Karen C%McCowen%NULL%1, Wei%Xiong%NULL%2, Jiao%Liu%NULL%3, Wenlijun%Jiang%NULL%2, Traci%Marin%NULL%1, Robert L%Thomas%NULL%1, Ming%He%NULL%2, Brendan%Gongol%NULL%1, Mark%Hepokoski%NULL%2, Jason X-J%Yuan%NULL%1, John Y-J%Shyy%NULL%1, Nian%Xiong%NULL%0, Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%0, Siyi%Xin%NULL%1, Yaqi%Chen%NULL%1, Leyu%Li%NULL%1, Wanjun%Chen%NULL%1, Wenjia%Li%NULL%1, Baoan%Zhou%NULL%1, Chenxia%Li%NULL%1, Yu%Gong%NULL%2, Fei%Li%NULL%0, Peng%Duan%NULL%1, Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Authors. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>Observational studies suggest outpatient metformin use is associated with reduced mortality from coronavirus disease‐2019 (COVID‐19).
+ Metformin is known to decrease interleukin‐6 and tumor‐necrosis factor‐α, which appear to contribute to morbidity in COVID‐19. We sought to understand whether outpatient metformin use was associated with reduced odds of severe COVID‐19 disease in a large US healthcare data set.
+ Retrospective cohort analysis of electronic health record (EHR) data that was pooled across multiple EHR systems from 12 hospitals and 60 primary care clinics in the Midwest between March 4, 2020 and December 4, 2020. Inclusion criteria: data for body mass index (BMI) &amp;gt; 25 kg/m2 and a positive SARS‐CoV‐2 polymerase chain reaction test; age ≥ 30 and ≤85 years.
+ Exclusion criteria: patient opt‐out of research.
+ Metformin is the exposure of interest, and death, admission, and intensive care unit admission are the outcomes of interest.
+ Metformin was associated with a decrease in mortality from COVID‐19, OR 0.32 (0.15, 0.66; p = .
+002), and in the propensity‐matched cohorts, OR 0.38 (0.16, 0.91; p = .
+030).
+ Metformin was associated with a nonsignificant decrease in hospital admission for COVID‐19 in the overall cohort, OR 0.78 (0.58–1.04, p = .
+087).
+ Among the subgroup with a hemoglobin HbA1c available (n = 1193), the adjusted odds of hospitalization (including adjustment for HbA1c) for metformin users was OR 0.75 (0.53–1.06, p = .
+105).
+ Outpatient metformin use was associated with lower mortality and a trend towards decreased admission for COVID‐19. Given metformin's low cost, established safety, and the mounting evidence of reduced severity of COVID‐19 disease, metformin should be prospectively assessed for outpatient treatment of COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0, John%Buse%NULL%2, John%Buse%NULL%0, Leonardo%Tamaritz%NULL%0, Ana%Palacio%NULL%2, Ken%Cohen%NULL%1, Deneen%Vojta%NULL%0, David%Liebovitz%NULL%1, Nia%Mitchell%NULL%1, Jacinda%Nicklas%NULL%1, Ildiko%Lingvay%NULL%1, Jeanne M.%Clark%NULL%1, Louis J.%Aronne%NULL%1, Erik%Anderson%NULL%1, Michael%Usher%NULL%0, Ryan%Demmer%NULL%1, Genevieve B.%Melton%NULL%1, Nicholas%Ingraham%NULL%1, Christopher J.%Tignanelli%NULL%0, Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%0, In-Ae%Song%songoficu@outlook.kr%2]</t>
+  </si>
+  <si>
+    <t>Springer Milan</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%0, Ana%Palacio%NULL%0, Elissa%Dawkins%NULL%1, Gordon%Chen%NULL%1, Daniel%McCarter%NULL%1, Emancia%Forbes%NULL%1, Brian%Chung%NULL%1, Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 has caused a major global pandemic and necessitated unprecedented public health restrictions in almost every country.
+ Understanding risk factors for severe disease in hospitalised patients is critical as the pandemic progresses.
+ This observational cohort study aimed to characterise the independent associations between the clinical outcomes of hospitalised patients and their demographics, comorbidities, blood tests and bedside observations.
+ All patients admitted to Northwick Park Hospital, London, UK between 12 March and 15 April 2020 with COVID-19 were retrospectively identified.
+ The primary outcome was death.
+ Associations were explored using Cox proportional hazards modelling.
+ The study included 981 patients.
+ The mortality rate was 36.0%.
+ Age (adjusted hazard ratio (aHR) 1.53), respiratory disease (aHR 1.37), immunosuppression (aHR 2.23), respiratory rate (aHR 1.28), hypoxia (aHR 1.36), Glasgow Coma Scale &amp;lt;15 (aHR 1.92), urea (aHR 2.67), alkaline phosphatase (aHR 2.53), C-reactive protein (aHR 1.15), lactate (aHR 2.67), platelet count (aHR 0.77) and infiltrates on chest radiograph (aHR 1.89) were all associated with mortality.
+ These important data will aid clinical risk stratification and provide direction for further research.
+</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%0, T. A. N.%Reed%NULL%2, T. A. N.%Reed%NULL%0, M.%Ardissino%NULL%1, P.%Bassett%NULL%1, A. M.%Whittington%NULL%1, D. L.%Cohen%NULL%1, N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%0, Walter%Distaso%NULL%2, Walter%Distaso%NULL%0, Anjali%Amin%NULL%1, Wei%Yang%NULL%3, Oluwagbemiga%Idowu%NULL%1, Julia S%Kenkre%NULL%1, Ronak J%Shah%NULL%1, Evelina%Woin%NULL%1, Christine%Shi%NULL%1, Nael%Alavi%NULL%2, Nael%Alavi%NULL%0, Hala%Bedri%NULL%1, Niamh%Brady%NULL%1, Sophie%Blackburn%NULL%1, Martina%Leczycka%NULL%1, Sanya%Patel%NULL%1, Elizaveta%Sokol%NULL%1, Edward%Toke-Bjolgerud%NULL%1, Ambreen%Qayum%NULL%1, Mariana%Abdel-Malek%NULL%1, David C D%Hope%NULL%1, Nick S%Oliver%NULL%1, Vasiliki%Bravis%NULL%1, Shivani%Misra%NULL%1, Tricia M%Tan%NULL%1, Neil E%Hill%NULL%2, Neil E%Hill%NULL%0, Victoria%Salem%NULL%2, Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%0, Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>Korean Diabetes Association</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%0, Tiffany%Grimes%NULL%2, Peng%Li%NULL%2, Matthew%Might%NULL%2, Fernando%Ovalle%NULL%2, Anath%Shalev%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%0, Nicholas E%Ingraham%NULL%1, Thomas A%Murray%NULL%1, Schelomo%Marmor%NULL%1, Shane%Hovertsen%NULL%1, Jessica%Gronski%NULL%1, Chace%McNeil%NULL%1, Ruoying%Feng%NULL%1, Gabriel%Guzman%NULL%1, Nermine%Abdelwahab%NULL%1, Samantha%King%NULL%1, Leonardo%Tamariz%NULL%0, Thomas%Meehan%NULL%1, Kathryn M%Pendleton%NULL%1, Bradley%Benson%NULL%1, Deneen%Vojta%NULL%0, Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%0, Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0, Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0, Matthieu%Wargny%NULL%0, Matthieu%Wargny%NULL%0, Matthieu%Pichelin%NULL%0, Matthieu%Pichelin%NULL%0, Abdallah%Al-Salameh%NULL%0, Abdallah%Al-Salameh%NULL%0, Ingrid%Allix%NULL%0, Ingrid%Allix%NULL%0, Coralie%Amadou%NULL%0, Gwénaëlle%Arnault%NULL%2, Gwénaëlle%Arnault%NULL%0, Florence%Baudoux%NULL%1, Bernard%Bauduceau%NULL%1, Sophie%Borot%NULL%1, Muriel%Bourgeon-Ghittori%NULL%2, Muriel%Bourgeon-Ghittori%NULL%0, Olivier%Bourron%NULL%0, David%Boutoille%NULL%4, David%Boutoille%NULL%0, France%Cazenave-Roblot%NULL%3, France%Cazenave-Roblot%NULL%0, Claude%Chaumeil%NULL%4, Claude%Chaumeil%NULL%0, Emmanuel%Cosson%NULL%1, Sandrine%Coudol%NULL%2, Sandrine%Coudol%NULL%0, Patrice%Darmon%NULL%3, Emmanuel%Disse%NULL%2, Emmanuel%Disse%NULL%0, Amélie%Ducet-Boiffard%NULL%2, Amélie%Ducet-Boiffard%NULL%0, Bénédicte%Gaborit%NULL%1, Michael%Joubert%NULL%0, Michael%Joubert%NULL%0, Véronique%Kerlan%NULL%2, Véronique%Kerlan%NULL%0, Bruno%Laviolle%NULL%1, Lucien%Marchand%NULL%0, Lucien%Marchand%NULL%0, Laurent%Meyer%NULL%0, Laurent%Meyer%NULL%0, Louis%Potier%NULL%4, Louis%Potier%NULL%0, Gaëtan%Prevost%NULL%0, Gaëtan%Prevost%NULL%0, Jean-Pierre%Riveline%NULL%1, René%Robert%NULL%3, René%Robert%NULL%0, Pierre-Jean%Saulnier%NULL%0, Pierre-Jean%Saulnier%NULL%0, Ariane%Sultan%NULL%2, Ariane%Sultan%NULL%0, Jean-François%Thébaut%NULL%3, Jean-François%Thébaut%NULL%0, Charles%Thivolet%NULL%0, Charles%Thivolet%NULL%0, Blandine%Tramunt%NULL%4, Blandine%Tramunt%NULL%0, Camille%Vatier%NULL%0, Ronan%Roussel%NULL%0, Ronan%Roussel%NULL%0, Jean-François%Gautier%NULL%0, Jean-François%Gautier%NULL%0, Pierre%Gourdy%NULL%0, Pierre%Gourdy%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%0, Peter%Knighton%NULL%1, Francesco%Zaccardi%NULL%2, Chirag%Bakhai%NULL%1, Emma%Barron%NULL%1, Naomi%Holman%NULL%1, Partha%Kar%NULL%1, Claire%Meace%NULL%1, Naveed%Sattar%NULL%2, Stephen%Sharp%NULL%1, Nicholas J%Wareham%NULL%1, Andy%Weaver%NULL%1, Emilia%Woch%NULL%1, Bob%Young%NULL%1, Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%0, José David%Torres-Peña%NULL%1, María D.%López-Carmona%NULL%1, M. Mar.%Ayala-Gutiérrez%NULL%1, Francisco%Fuentes-Jiménez%NULL%1, Lucía Jorge%Huerta%NULL%1, Jaime Alonso%Muñoz%NULL%1, Manuel%Rubio-Rivas%NULL%1, Manel%Madrazo%NULL%1, Marcos Guzmán%Garcia%NULL%1, Beatriz Vicente%Montes%NULL%1, Joaquim Fernández%Sola%NULL%1, Javier%Ena%NULL%1, Ruth Gonzalez%Ferrer%NULL%1, Carmen Mella%Pérez%NULL%1, Carlos Jorge%Ripper%NULL%1, Jose Javier Napal%Lecumberri%NULL%1, Iris El Attar%Acedo%NULL%1, Susana Plaza%Canteli%NULL%1, Sara Fuente%Cosío%NULL%1, Francisco Amorós%Martínez%NULL%1, Begoña Cortés%Rodríguez%NULL%1, Pablo%Pérez-Martínez%pablopermar@yahoo.es%1, José Manuel%Ramos-Rincón%NULL%1, Ricardo%Gómez-Huelgas%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%0, Sang Won%Kim%NULL%1, Jong Won%Park%NULL%1, Kyu Hyang%Cho%NULL%1, Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%0, Philip%Tsoukas%NULL%1, Christopher W.%Halladay%NULL%0, Emily%O'Neill%NULL%1, Stefan%Gravenstein%NULL%0, James L.%Rudolph%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current outbreak of the severe acute respiratory syndrome coronavirus 2 (SARS‐CoV‐2) infection has spread across the world.
+ No specific antiviral agents have been adequately evidenced for the treatment of coronavirus disease 2019 (COVID‐19).
+ Although metformin has been recommended as a host‐directed therapy for COVID‐19, there are some opposite views.
+ The effects of metformin on the disease severity of patients with COVID‐19 with diabetes during hospitalization remains unclear.
+ This study aimed to determine the effect of metformin on disease severity.
+ We enrolled 110 hospitalized patients with COVID‐19 with diabetes prescribed either metformin or non‐metformin hypoglycemic treatment for a case‐control study.
+ The primary outcome was the occurrence of life‐threatening complications.
+ There were no differences between the two groups in age, sex, comorbidities, and clinical severity at admission.
+ Blood glucose and lactate dehydrogenase levels of the metformin group were higher than those of the non‐metformin group at admission.
+ Other laboratory parameters at admission and treatments after admission were not different between the two groups.
+ Strikingly, the percentage of patients who experienced life‐threatening complications was significantly higher in the metformin group (28.6% (16/56) vs.
+ 7.4% (4/54), P = 0.004).
+ Antidiabetic therapy with metformin was associated with a higher risk of disease progression in patients with COVID‐19 with diabetes during hospitalization (adjusted odds ratio = 3.964, 95% confidence interval 1.034–15.194, P = 0.045).
+ This retrospective analysis suggested a potential safety signal for metformin, the use of which was associated with a higher risk of severe COVID‐19. We propose that metformin withdrawal in patients with COVID‐19 be considered to prevent disease progression.
+</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%0, Tao%Liu%NULL%7, Weijun%Zhong%NULL%1, Rong%Liu%NULL%1, Honghao%Zhou%NULL%1, Weihua%Huang%endeavor34852@aliyun.com%1, Wei%Zhang%csuzhangwei@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%0, Jae-Han%Jeon%NULL%2, Jae-Han%Jeon%NULL%0, Sung-Woo%Kim%NULL%2, Sung-Woo%Kim%NULL%0, Jun Sung%Moon%NULL%1, Nan Hee%Cho%NULL%1, Eugene%Han%NULL%1, Ji Hong%You%NULL%1, Ji Yeon%Lee%NULL%4, Miri%Hyun%NULL%1, Jae Seok%Park%NULL%4, Yong Shik%Kwon%NULL%0, Yeon-Kyung%Choi%NULL%1, Ki Tae%Kwon%NULL%0, Shin Yup%Lee%NULL%2, Eon Ju%Jeon%NULL%1, Jin-Woo%Kim%NULL%1, Hyo-Lim%Hong%NULL%1, Hyun Hee%Kwon%NULL%1, Chi Young%Jung%NULL%1, Yin Young%Lee%NULL%1, Eunyeoung%Ha%NULL%1, Seung Min%Chung%NULL%1, Jian%Hur%NULL%2, June Hong%Ahn%NULL%5, Na-young%Kim%NULL%0, Shin-Woo%Kim%NULL%3, Hyun Ha%Chang%NULL%1, Yong Hoon%Lee%NULL%0, Jaehee%Lee%NULL%3, Keun-Gyu%Park%NULL%1, Hyun Ah%Kim%NULL%1, Ji-Hyun%Lee%NULL%2, Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metformin was proposed to be a candidate for host-directed therapy for COVID-19. However, its efficacy remains to be validated.
+ In this study, we compared the outcome of metformin users and nonusers in hospitalized COVID-19 patients with diabetes.
+ Hospitalized diabetic patients with confirmed COVID-19 in the Tongji Hospital of Wuhan, China, from January 27, 2020 to March 24, 2020, were grouped into metformin and no-metformin groups according to the diabetic medications used.
+ The demographics, characteristics, laboratory parameters, treatments, and clinical outcome in these patients were retrospectively assessed.
+ A total of 283 patients (104 in the metformin and 179 in the no-metformin group) were included in this study.
+ There were no significant differences between the two groups in gender, age, underlying diseases, clinical severity, and oxygen-support category at admission.
+ The fasting blood glucose level of the metformin group was higher than that of the no-metformin group at admission and was under effective control in both groups after admission.
+ Other laboratory parameters at admission and treatments after admission were not different between the two groups.
+ The length of hospital stay did not differ between the two groups (21.0 days for metformin versus 19.5 days for no metformin, P = 0.74).
+ However, in-hospital mortality was significantly lower in the metformin group (3/104 (2.9%) versus 22/179 (12.3%), P = 0.01).
+ Antidiabetic treatment with metformin was associated with decreased mortality compared with diabetics not receiving metformin.
+ This retrospective analysis suggests that metformin may offer benefits in patients with COVID-19 and that further study is indicated.
+</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%0, Lin%Qiu%NULL%0, Yi%Liu%NULL%0, Xiu-lan%Liu%NULL%1, Jian-ling%Zheng%NULL%1, Hui-ying%Xue%NULL%1, Wen-hua%Liu%NULL%1, Dong%Liu%NULL%0, Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>The American Society of Tropical Medicine and Hygiene</t>
   </si>
 </sst>
 </file>
@@ -3924,7 +4302,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>1005</v>
+        <v>1092</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3936,10 +4314,10 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3">
@@ -3956,7 +4334,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>1006</v>
+        <v>1094</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3968,10 +4346,10 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>134</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4">
@@ -3988,7 +4366,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>1007</v>
+        <v>1096</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -4000,10 +4378,10 @@
         <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="5">
@@ -4020,7 +4398,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>1008</v>
+        <v>1098</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -4032,10 +4410,10 @@
         <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6">
@@ -4049,10 +4427,10 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>1100</v>
       </c>
       <c r="E6" t="s">
-        <v>1009</v>
+        <v>1101</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -4064,10 +4442,10 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7">
@@ -4084,7 +4462,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>1010</v>
+        <v>1103</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -4096,10 +4474,10 @@
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8">
@@ -4116,7 +4494,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>1011</v>
+        <v>1104</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -4128,10 +4506,10 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="9">
@@ -4148,7 +4526,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>1012</v>
+        <v>1105</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -4160,10 +4538,10 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10">
@@ -4180,7 +4558,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>1013</v>
+        <v>1107</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4192,10 +4570,10 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11">
@@ -4209,10 +4587,10 @@
         <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>1109</v>
       </c>
       <c r="E11" t="s">
-        <v>1014</v>
+        <v>1110</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4224,10 +4602,10 @@
         <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="12">
@@ -4244,7 +4622,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>1015</v>
+        <v>1111</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4256,10 +4634,10 @@
         <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="13">
@@ -4273,10 +4651,10 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>1113</v>
       </c>
       <c r="E13" t="s">
-        <v>1016</v>
+        <v>1114</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4288,10 +4666,10 @@
         <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="14">
@@ -4305,10 +4683,10 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>531</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>1017</v>
+        <v>1116</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -4320,10 +4698,10 @@
         <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>762</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="15">
@@ -4340,7 +4718,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>1018</v>
+        <v>1118</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -4352,10 +4730,10 @@
         <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16">
@@ -4372,7 +4750,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>1019</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -4384,10 +4762,10 @@
         <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="17">
@@ -4401,10 +4779,10 @@
         <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>1119</v>
       </c>
       <c r="E17" t="s">
-        <v>1020</v>
+        <v>1120</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -4416,10 +4794,10 @@
         <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="18">
@@ -4436,7 +4814,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>1021</v>
+        <v>1122</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -4448,10 +4826,10 @@
         <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="19">
@@ -4468,7 +4846,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>1022</v>
+        <v>1124</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -4480,10 +4858,10 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J19" t="s">
-        <v>134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="20">
@@ -4500,7 +4878,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>1023</v>
+        <v>1126</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -4512,10 +4890,10 @@
         <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="21">
@@ -4532,7 +4910,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>1024</v>
+        <v>1127</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -4544,10 +4922,10 @@
         <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="22">
@@ -4561,10 +4939,10 @@
         <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>540</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -4576,10 +4954,10 @@
         <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>762</v>
+        <v>134</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="23">
@@ -4596,7 +4974,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>1026</v>
+        <v>1131</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -4608,10 +4986,10 @@
         <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J23" t="s">
-        <v>134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="24">
@@ -4625,10 +5003,10 @@
         <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>543</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>1027</v>
+        <v>1133</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -4640,10 +5018,10 @@
         <v>158</v>
       </c>
       <c r="I24" t="s">
-        <v>762</v>
+        <v>134</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="25">
@@ -4660,7 +5038,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>1028</v>
+        <v>1135</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -4672,10 +5050,10 @@
         <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>134</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="26">
@@ -4686,28 +5064,28 @@
         <v>44013.0</v>
       </c>
       <c r="C26" t="s">
-        <v>411</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>412</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>841</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
         <v>134</v>
       </c>
       <c r="J26" t="s">
-        <v>842</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
@@ -4724,7 +5102,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>1029</v>
+        <v>1136</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -4736,10 +5114,10 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>750</v>
+        <v>134</v>
       </c>
       <c r="J27" t="s">
-        <v>134</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="28">
@@ -4753,10 +5131,10 @@
         <v>168</v>
       </c>
       <c r="D28" t="s">
-        <v>169</v>
+        <v>1138</v>
       </c>
       <c r="E28" t="s">
-        <v>1030</v>
+        <v>1139</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -4768,10 +5146,10 @@
         <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J28" t="s">
-        <v>134</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29">
@@ -4788,7 +5166,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>1031</v>
+        <v>1140</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -4800,10 +5178,10 @@
         <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J29" t="s">
-        <v>134</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="30">
@@ -4817,10 +5195,10 @@
         <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>1141</v>
       </c>
       <c r="E30" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -4832,10 +5210,10 @@
         <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>134</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31">
@@ -4846,25 +5224,25 @@
         <v>44044.0</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>1033</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>781</v>
+        <v>134</v>
       </c>
       <c r="J31" t="s">
         <v>134</v>
@@ -4878,25 +5256,25 @@
         <v>44066.0</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>1034</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>781</v>
+        <v>134</v>
       </c>
       <c r="J32" t="s">
         <v>134</v>
@@ -4910,25 +5288,25 @@
         <v>44047.0</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>1035</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>781</v>
+        <v>134</v>
       </c>
       <c r="J33" t="s">
         <v>134</v>
